--- a/ressources/import/2024/Wahl BOT 23_24.xlsx
+++ b/ressources/import/2024/Wahl BOT 23_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bwvaachen-my.sharepoint.com/personal/claudia_linzenich-kick_bwv-aachen_de/Documents/Dokumente/Berufsorientierung HöHa/BOT2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Documents\Schule\Projects\eventplanner\ressources\import\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1A11429-F0D4-1547-A8CB-D52E7572A9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E9AE2F-533E-4431-B4B2-0E80B5EC88EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Wahl" sheetId="2" r:id="rId1"/>
@@ -1808,17 +1808,17 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6953125" customWidth="1"/>
-    <col min="3" max="3" width="17.75390625" customWidth="1"/>
-    <col min="9" max="9" width="20.4453125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2054,7 +2054,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>89</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>89</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>89</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>89</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>89</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>89</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>89</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>89</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -3349,7 +3349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>132</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>135</v>
       </c>
@@ -3465,7 +3465,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>135</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>135</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>135</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>135</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>135</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>135</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>135</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>135</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>135</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>135</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>135</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>135</v>
       </c>
@@ -3958,7 +3958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>135</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>135</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>135</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>176</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -4103,7 +4103,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>176</v>
       </c>
@@ -4132,7 +4132,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>176</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>176</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -4335,7 +4335,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>176</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>176</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>176</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>176</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>176</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>176</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>176</v>
       </c>
@@ -4596,7 +4596,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>176</v>
       </c>
@@ -4625,7 +4625,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>215</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>215</v>
       </c>
@@ -4683,7 +4683,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>215</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>215</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>215</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>215</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>215</v>
       </c>
@@ -4857,7 +4857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>215</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>215</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>215</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>215</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>215</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>215</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>215</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>215</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>215</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>215</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>251</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>251</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>251</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>251</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>251</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>251</v>
       </c>
@@ -5321,7 +5321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>251</v>
       </c>
@@ -5350,7 +5350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>251</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>251</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>251</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>251</v>
       </c>
@@ -5466,7 +5466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>251</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>251</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>251</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>251</v>
       </c>
@@ -5582,7 +5582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>282</v>
       </c>
@@ -5611,7 +5611,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>282</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>282</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>282</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>282</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>282</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>282</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>282</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>282</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>282</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>282</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>282</v>
       </c>
